--- a/Docs/Sprint_1/Product_Backlog.xlsx
+++ b/Docs/Sprint_1/Product_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\OneDrive\Documents\Fatec\API\Avaliacao360_Cópia\Docs\Sprint_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A0B39-45F3-4629-858D-BD8ED596DE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9216293A-9972-4EE9-93A2-079C570C5202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{39AA95B5-0439-4C26-9918-93D03B0D90B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{39AA95B5-0439-4C26-9918-93D03B0D90B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
-  <si>
-    <t>RQFN 01.03</t>
-  </si>
-  <si>
-    <t>Portal tela Autoavaliação – Autoavaliação</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Alto</t>
   </si>
@@ -39,69 +44,21 @@
     <t xml:space="preserve">RQFN 01.04 </t>
   </si>
   <si>
-    <t>Portal tela avaliar – Avaliação de integrantes</t>
-  </si>
-  <si>
-    <t>RQFN 02.02</t>
-  </si>
-  <si>
-    <t>Portal Tela Gestão Geral – Controle Geral Turma/Time/Sprints</t>
-  </si>
-  <si>
     <t xml:space="preserve">RQFN 01.01 </t>
   </si>
   <si>
-    <t>Portal Tela Inicial – Login</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>RQFN 01.02</t>
-  </si>
-  <si>
-    <t>Portal Tela Principal – Menu</t>
-  </si>
-  <si>
     <t xml:space="preserve">RQFN 01.05 </t>
   </si>
   <si>
-    <t>Portal Tela de devolutiva – Devolutiva de avaliação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RQFN 02.01 </t>
-  </si>
-  <si>
-    <t>Portal Tela Gestão – Cadastro</t>
-  </si>
-  <si>
     <t>RQFN 02.03</t>
   </si>
   <si>
-    <t>Portal Tela Gestão Perfil – Controle de Perfil</t>
-  </si>
-  <si>
-    <t>RQFN 02.04</t>
-  </si>
-  <si>
-    <t>Portal Tela Gestão Devolutiva – Devolutiva de avaliação – ADM</t>
-  </si>
-  <si>
     <t>RQFN 03.01</t>
   </si>
   <si>
-    <t>Dashboards Operacional</t>
-  </si>
-  <si>
     <t>Baixo</t>
   </si>
   <si>
-    <t>RQFN 03.02</t>
-  </si>
-  <si>
-    <t>Dashboards Gerenciais</t>
-  </si>
-  <si>
     <t>RQFN</t>
   </si>
   <si>
@@ -114,20 +71,38 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Documentação BackLog</t>
-  </si>
-  <si>
-    <t>Documentação de Requisitos</t>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avaliação dos Usuarios</t>
+  </si>
+  <si>
+    <t>Gestão de Usuarios</t>
+  </si>
+  <si>
+    <t>Acesso de Usuarios</t>
+  </si>
+  <si>
+    <t>Devolutiva das Avaliações</t>
+  </si>
+  <si>
+    <t>Médio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +148,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +174,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,27 +214,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3F9B92"/>
+      <color rgb="FF1B6561"/>
+      <color rgb="FF89CFC9"/>
+      <color rgb="FF0097B2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -540,214 +579,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D9EF73-C807-4D0A-9B89-991337C07499}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
